--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>常见问题.psd</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,6 +33,14 @@
   </si>
   <si>
     <t>shop-index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类搜索2.psd,分类搜索2 - 展开.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>search-list.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -394,16 +402,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="26.75" customWidth="1"/>
-    <col min="2" max="2" width="26.5" customWidth="1"/>
+    <col min="1" max="1" width="38.875" customWidth="1"/>
+    <col min="2" max="2" width="33.625" customWidth="1"/>
     <col min="3" max="3" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -426,6 +434,14 @@
       </c>
       <c r="B3" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>常见问题.psd</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,6 +41,22 @@
   </si>
   <si>
     <t>search-list.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于我们.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>about-us.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系我们.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contact-us.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -402,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -444,6 +460,22 @@
         <v>6</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>常见问题.psd</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,6 +57,22 @@
   </si>
   <si>
     <t>contact-us.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌介绍.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>introduce.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品-评论详情-更多.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment-list.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -418,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -476,6 +492,22 @@
         <v>10</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>常见问题.psd</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,6 +73,14 @@
   </si>
   <si>
     <t>comment-list.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品详情 - 2.psd,商品详情 - 2 - 弹出规格.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop-show.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -434,15 +442,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="38.875" customWidth="1"/>
+    <col min="1" max="1" width="48.25" customWidth="1"/>
     <col min="2" max="2" width="33.625" customWidth="1"/>
     <col min="3" max="3" width="19.5" customWidth="1"/>
   </cols>
@@ -508,6 +516,14 @@
         <v>14</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>常见问题.psd</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,10 +40,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>search-list.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>关于我们.psd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -81,6 +77,18 @@
   </si>
   <si>
     <t>shop-show.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索列表 - 大图版面.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>search-list-b.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>search-class.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -442,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -481,47 +489,55 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
         <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
         <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
         <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>常见问题.psd</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,15 +80,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>搜索列表 - 大图版面.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>search-list-b.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>search-class.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索列表.psd,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索列表 - 大图版面.psd,搜索列表 - 排序.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>search-list.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -450,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -489,7 +497,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -534,10 +542,18 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="B10" t="s">
-        <v>17</v>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>常见问题.psd</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -28,75 +28,103 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>shop-index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类搜索2.psd,分类搜索2 - 展开.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于我们.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>about-us.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系我们.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contact-us.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌介绍.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>introduce.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品-评论详情-更多.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment-list.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品详情 - 2.psd,商品详情 - 2 - 弹出规格.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop-show.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>search-list-b.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>search-class.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索列表.psd,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索列表 - 大图版面.psd,搜索列表 - 排序.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>search-list.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺首页.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>cs-厂商</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>shop-index.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分类搜索2.psd,分类搜索2 - 展开.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关于我们.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>about-us.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系我们.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contact-us.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品牌介绍.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>introduce.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品-评论详情-更多.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comment-list.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品详情 - 2.psd,商品详情 - 2 - 弹出规格.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shop-show.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>search-list-b.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>search-class.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索列表.psd,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索列表 - 大图版面.psd,搜索列表 - 排序.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>search-list.html</t>
+    <t>mj-买家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺首页-搜索.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop-index-mj.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop-index-mj-search.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品详情 - 2.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop-show-mj.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -104,7 +132,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,6 +150,15 @@
     <font>
       <b/>
       <sz val="18"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -149,9 +186,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -458,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -473,7 +513,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -489,71 +529,100 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
         <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
         <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
         <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
         <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>常见问题.psd</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,6 +125,22 @@
   </si>
   <si>
     <t>shop-show-mj.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的订单3.psd,我的订单3 - 下拉.psd,我的订单-待发货.psd,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的订单-待发货-订单详情 - 申请退款.psd,我的订单-待发货-订单详情 - 退款成功.psd,我的订单-待发货-订单详情.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my-indent.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my-indent-dfh.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -186,13 +202,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -498,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -625,6 +644,22 @@
         <v>27</v>
       </c>
     </row>
+    <row r="20" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>常见问题.psd</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,19 +128,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>我的订单3.psd,我的订单3 - 下拉.psd,我的订单-待发货.psd,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的订单-待发货-订单详情 - 申请退款.psd,我的订单-待发货-订单详情 - 退款成功.psd,我的订单-待发货-订单详情.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>my-indent.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>my-indent-dfh.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的订单3.psd,我的订单3 - 下拉.psd,我的订单-待发货.psd,我的订单-待付款 - 继续付款.psd,我的订单-待付款.psd,我的订单-待评价.psd,我的订单-退货退款.psd,我的订单-退款处理中-无法确认状态.psd,我的订单-已发货.psd,我的订单-已完成.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的订单-待发货-订单详情 - 申请退款.psd,我的订单-待发货-订单详情 - 退款成功.psd,我的订单-待发货-订单详情.psd,我的订单-已发货-订单详情 - 申请退款.psd,我的订单-已发货-订单详情 - 退款成功.psd,我的订单-已发货-订单详情.psd,我的订单-已完成-订单详情.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱款去向.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>money-flow.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评价.psd,评价 -感谢您的评价.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>evaluate.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -517,15 +533,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="48.25" customWidth="1"/>
+    <col min="1" max="1" width="46.625" customWidth="1"/>
     <col min="2" max="2" width="33.625" customWidth="1"/>
     <col min="3" max="3" width="19.5" customWidth="1"/>
   </cols>
@@ -644,20 +660,36 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
         <v>28</v>
       </c>
-      <c r="B20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:2" ht="81" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
         <v>29</v>
       </c>
-      <c r="B21" t="s">
-        <v>31</v>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>常见问题.psd</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -157,6 +157,14 @@
   </si>
   <si>
     <t>evaluate.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看物流.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logistics-info.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -533,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -692,6 +700,14 @@
         <v>35</v>
       </c>
     </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>常见问题.psd</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,6 +165,46 @@
   </si>
   <si>
     <t>logistics-info.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请退款.psd,申请退款 - 提示1.psd,申请退款 - 提示2.psd,申请退款 - 提示3.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款结果-成功.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply-refun-succeed.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款结果 - 失败.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款详情-仅退款等待处理.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply-refun-false.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply-refun.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款详情-仅退款等待处理 - 2.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply-refun-wait.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply-refun-wait2.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -226,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -236,6 +276,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -541,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -708,6 +751,46 @@
         <v>37</v>
       </c>
     </row>
+    <row r="29" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A29" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>常见问题.psd</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -200,11 +200,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>apply-refun-wait2.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款详情-申请售后买家退货.psd,退款详情-申请售后买家退货 - 提交成功.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款详情-申请售后买家退货-等待卖家收货.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply-refun-sales.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款详情-退款退货等待处理.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>apply-refun-wait.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>apply-refun-wait2.html</t>
+    <t>apply-refun-sales2.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply-refun-wait3.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款详情-要求微代平台介入.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply-refun-weixin.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -584,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -780,7 +812,7 @@
         <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
@@ -788,7 +820,39 @@
         <v>45</v>
       </c>
       <c r="B35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A37" s="3" t="s">
         <v>47</v>
+      </c>
+      <c r="B37" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>常见问题.psd</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -237,6 +237,18 @@
   </si>
   <si>
     <t>apply-refun-weixin.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人资料1.psd,个人资料2.psd,个人资料3.psd,个人资料4.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wd-我的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>personal-data.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -244,7 +256,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,6 +289,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -298,7 +318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -311,6 +331,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -616,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -855,6 +878,19 @@
         <v>55</v>
       </c>
     </row>
+    <row r="46" spans="1:2" ht="46.5" x14ac:dyDescent="0.15">
+      <c r="A46" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A47" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>常见问题.psd</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -249,6 +249,18 @@
   </si>
   <si>
     <t>personal-data.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待续</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理中心 -2.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>management-center.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -639,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -830,7 +842,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -838,7 +850,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -846,7 +858,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>47</v>
       </c>
@@ -854,7 +866,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -862,7 +874,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>50</v>
       </c>
@@ -870,7 +882,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>54</v>
       </c>
@@ -878,17 +890,28 @@
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="46.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3" ht="46.5" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B47" t="s">
         <v>58</v>
+      </c>
+      <c r="C47" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>常见问题.psd</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -261,6 +261,14 @@
   </si>
   <si>
     <t>management-center.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的店铺-已添加商品.psd,我的店铺-已添加商品 -分享.psd,我的店铺-已添加商品 -分类展开.psd,我的店铺-无添加商品.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my-shop.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -651,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -914,6 +922,14 @@
         <v>61</v>
       </c>
     </row>
+    <row r="51" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A51" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>常见问题.psd</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -248,27 +248,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>管理中心 -2.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>management-center.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的店铺-已添加商品.psd,我的店铺-已添加商品 -分享.psd,我的店铺-已添加商品 -分类展开.psd,我的店铺-无添加商品.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my-shop.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>素材库.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>素材库-图片放大.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>material-library.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>material-library-show.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待续</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>personal-data.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>素材库-图片放大 - 下载.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>待续</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>管理中心 -2.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>management-center.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的店铺-已添加商品.psd,我的店铺-已添加商品 -分享.psd,我的店铺-已添加商品 -分类展开.psd,我的店铺-无添加商品.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>my-shop.html</t>
+    <t>material-library-show2.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云端品牌库 - 副本.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cloud-brand-list.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -659,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -850,7 +886,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -858,7 +894,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -866,7 +902,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>47</v>
       </c>
@@ -874,7 +910,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -882,7 +918,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>50</v>
       </c>
@@ -890,7 +926,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>54</v>
       </c>
@@ -898,36 +934,71 @@
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="46.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2" ht="46.5" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B47" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
         <v>58</v>
       </c>
-      <c r="C47" t="s">
+      <c r="B49" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" t="s">
+    <row r="51" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A51" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B51" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A51" s="3" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
         <v>62</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B53" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
         <v>63</v>
+      </c>
+      <c r="B54" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>68</v>
+      </c>
+      <c r="B55" t="s">
+        <v>70</v>
+      </c>
+      <c r="C55" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>71</v>
+      </c>
+      <c r="B57" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>常见问题.psd</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,175 +136,183 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>我的订单-待发货-订单详情 - 申请退款.psd,我的订单-待发货-订单详情 - 退款成功.psd,我的订单-待发货-订单详情.psd,我的订单-已发货-订单详情 - 申请退款.psd,我的订单-已发货-订单详情 - 退款成功.psd,我的订单-已发货-订单详情.psd,我的订单-已完成-订单详情.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱款去向.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>money-flow.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评价.psd,评价 -感谢您的评价.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>evaluate.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看物流.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logistics-info.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请退款.psd,申请退款 - 提示1.psd,申请退款 - 提示2.psd,申请退款 - 提示3.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款结果-成功.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply-refun-succeed.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款结果 - 失败.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款详情-仅退款等待处理.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply-refun-false.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply-refun.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款详情-仅退款等待处理 - 2.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply-refun-wait2.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款详情-申请售后买家退货.psd,退款详情-申请售后买家退货 - 提交成功.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款详情-申请售后买家退货-等待卖家收货.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply-refun-sales.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款详情-退款退货等待处理.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply-refun-wait.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply-refun-sales2.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply-refun-wait3.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款详情-要求微代平台介入.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply-refun-weixin.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人资料1.psd,个人资料2.psd,个人资料3.psd,个人资料4.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wd-我的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理中心 -2.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>management-center.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的店铺-已添加商品.psd,我的店铺-已添加商品 -分享.psd,我的店铺-已添加商品 -分类展开.psd,我的店铺-无添加商品.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>素材库.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>素材库-图片放大.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>material-library.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>material-library-show.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待续</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>personal-data.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>素材库-图片放大 - 下载.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待续</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>material-library-show2.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cloud-brand-list.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cloud-brand-show.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>我的订单3.psd,我的订单3 - 下拉.psd,我的订单-待发货.psd,我的订单-待付款 - 继续付款.psd,我的订单-待付款.psd,我的订单-待评价.psd,我的订单-退货退款.psd,我的订单-退款处理中-无法确认状态.psd,我的订单-已发货.psd,我的订单-已完成.psd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>我的订单-待发货-订单详情 - 申请退款.psd,我的订单-待发货-订单详情 - 退款成功.psd,我的订单-待发货-订单详情.psd,我的订单-已发货-订单详情 - 申请退款.psd,我的订单-已发货-订单详情 - 退款成功.psd,我的订单-已发货-订单详情.psd,我的订单-已完成-订单详情.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钱款去向.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>money-flow.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评价.psd,评价 -感谢您的评价.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>evaluate.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看物流.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logistics-info.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请退款.psd,申请退款 - 提示1.psd,申请退款 - 提示2.psd,申请退款 - 提示3.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退款结果-成功.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apply-refun-succeed.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退款结果 - 失败.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退款详情-仅退款等待处理.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apply-refun-false.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apply-refun.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退款详情-仅退款等待处理 - 2.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apply-refun-wait2.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退款详情-申请售后买家退货.psd,退款详情-申请售后买家退货 - 提交成功.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退款详情-申请售后买家退货-等待卖家收货.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apply-refun-sales.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退款详情-退款退货等待处理.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apply-refun-wait.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apply-refun-sales2.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apply-refun-wait3.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退款详情-要求微代平台介入.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apply-refun-weixin.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人资料1.psd,个人资料2.psd,个人资料3.psd,个人资料4.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wd-我的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理中心 -2.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>management-center.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的店铺-已添加商品.psd,我的店铺-已添加商品 -分享.psd,我的店铺-已添加商品 -分类展开.psd,我的店铺-无添加商品.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>my-shop.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>素材库.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>素材库-图片放大.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>material-library.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>material-library-show.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待续</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>personal-data.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>素材库-图片放大 - 下载.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待续</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>material-library-show2.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>云端品牌库 - 副本.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cloud-brand-list.html</t>
+    <t>云端品牌库2.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云端品牌库-微代品牌-全部商品.psd，云端品牌库-微代品牌-全部商品 - 分类展开.psd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -695,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -824,7 +832,7 @@
     </row>
     <row r="20" spans="1:2" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="B20" t="s">
         <v>28</v>
@@ -832,7 +840,7 @@
     </row>
     <row r="21" spans="1:2" ht="81" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -840,165 +848,173 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" t="s">
         <v>32</v>
-      </c>
-      <c r="B23" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" t="s">
         <v>34</v>
-      </c>
-      <c r="B25" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" t="s">
         <v>36</v>
-      </c>
-      <c r="B27" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" t="s">
         <v>39</v>
-      </c>
-      <c r="B31" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" t="s">
         <v>45</v>
-      </c>
-      <c r="B35" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" t="s">
         <v>54</v>
-      </c>
-      <c r="B42" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="46.5" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B47" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" t="s">
         <v>58</v>
-      </c>
-      <c r="B49" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B51" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" t="s">
         <v>62</v>
-      </c>
-      <c r="B53" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" t="s">
         <v>63</v>
       </c>
-      <c r="B54" t="s">
-        <v>65</v>
-      </c>
       <c r="C54" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
+        <v>66</v>
+      </c>
+      <c r="B55" t="s">
         <v>68</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A57" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B57" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>73</v>
+      </c>
+      <c r="B58" t="s">
         <v>70</v>
-      </c>
-      <c r="C55" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A57" t="s">
-        <v>71</v>
-      </c>
-      <c r="B57" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>常见问题.psd</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -313,6 +313,34 @@
   </si>
   <si>
     <t>云端品牌库-微代品牌-全部商品.psd，云端品牌库-微代品牌-全部商品 - 分类展开.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动大厅.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity-center.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何升级.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>how-levelup.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未做瀑布流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售管理02.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sales-management.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -703,10 +731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -978,6 +1006,9 @@
       <c r="B53" t="s">
         <v>62</v>
       </c>
+      <c r="C53" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
@@ -1015,6 +1046,30 @@
       </c>
       <c r="B58" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>75</v>
+      </c>
+      <c r="B60" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>77</v>
+      </c>
+      <c r="B61" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>80</v>
+      </c>
+      <c r="B62" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>常见问题.psd</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -341,6 +341,14 @@
   </si>
   <si>
     <t>sales-management.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享引导.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>share-guidance.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -731,10 +739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1072,6 +1080,14 @@
         <v>81</v>
       </c>
     </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>82</v>
+      </c>
+      <c r="B63" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>常见问题.psd</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -349,6 +349,10 @@
   </si>
   <si>
     <t>share-guidance.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dl-代理商</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -418,7 +422,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -433,6 +437,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -739,10 +746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1088,6 +1095,11 @@
         <v>83</v>
       </c>
     </row>
+    <row r="66" spans="1:1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A66" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>常见问题.psd</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -353,6 +353,14 @@
   </si>
   <si>
     <t>dl-代理商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待发货.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wait-deliver.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -746,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1095,9 +1103,17 @@
         <v>83</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:2" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A66" s="6" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>85</v>
+      </c>
+      <c r="B67" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>常见问题.psd</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,91 +40,351 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>联系我们.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contact-us.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌介绍.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>introduce.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品-评论详情-更多.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment-list.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品详情 - 2.psd,商品详情 - 2 - 弹出规格.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop-show.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>search-list-b.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>search-class.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索列表.psd,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索列表 - 大图版面.psd,搜索列表 - 排序.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>search-list.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺首页.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs-厂商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mj-买家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺首页-搜索.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop-index-mj.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop-index-mj-search.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品详情 - 2.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop-show-mj.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的订单-待发货-订单详情 - 申请退款.psd,我的订单-待发货-订单详情 - 退款成功.psd,我的订单-待发货-订单详情.psd,我的订单-已发货-订单详情 - 申请退款.psd,我的订单-已发货-订单详情 - 退款成功.psd,我的订单-已发货-订单详情.psd,我的订单-已完成-订单详情.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱款去向.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>money-flow.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评价.psd,评价 -感谢您的评价.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>evaluate.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看物流.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logistics-info.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请退款.psd,申请退款 - 提示1.psd,申请退款 - 提示2.psd,申请退款 - 提示3.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款结果-成功.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply-refun-succeed.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款结果 - 失败.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款详情-仅退款等待处理.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply-refun-false.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply-refun.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款详情-仅退款等待处理 - 2.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply-refun-wait2.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款详情-申请售后买家退货.psd,退款详情-申请售后买家退货 - 提交成功.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款详情-申请售后买家退货-等待卖家收货.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply-refun-sales.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款详情-退款退货等待处理.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply-refun-wait.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply-refun-sales2.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply-refun-wait3.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款详情-要求微代平台介入.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply-refun-weixin.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人资料1.psd,个人资料2.psd,个人资料3.psd,个人资料4.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wd-我的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理中心 -2.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>management-center.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的店铺-已添加商品.psd,我的店铺-已添加商品 -分享.psd,我的店铺-已添加商品 -分类展开.psd,我的店铺-无添加商品.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>素材库.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>素材库-图片放大.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>material-library.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>material-library-show.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待续</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>personal-data.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>素材库-图片放大 - 下载.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待续</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>material-library-show2.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cloud-brand-list.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cloud-brand-show.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的订单3.psd,我的订单3 - 下拉.psd,我的订单-待发货.psd,我的订单-待付款 - 继续付款.psd,我的订单-待付款.psd,我的订单-待评价.psd,我的订单-退货退款.psd,我的订单-退款处理中-无法确认状态.psd,我的订单-已发货.psd,我的订单-已完成.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my-shop.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云端品牌库2.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云端品牌库-微代品牌-全部商品.psd，云端品牌库-微代品牌-全部商品 - 分类展开.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动大厅.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity-center.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何升级.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>how-levelup.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未做瀑布流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售管理02.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sales-management.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享引导.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>share-guidance.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dl-代理商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待发货.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待付款.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wait-deliver.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wait-pay.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单详情-已完成.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>indent-info.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务协议.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>about-us.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>联系我们.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contact-us.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品牌介绍.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>introduce.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品-评论详情-更多.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comment-list.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品详情 - 2.psd,商品详情 - 2 - 弹出规格.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shop-show.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>search-list-b.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>search-class.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索列表.psd,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索列表 - 大图版面.psd,搜索列表 - 排序.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>search-list.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>店铺首页.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cs-厂商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mj-买家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>店铺首页-搜索.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shop-index-mj.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shop-index-mj-search.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品详情 - 2.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shop-show-mj.html</t>
+    <t>agreement.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部订单.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my-indent-dfh.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -132,235 +392,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>my-indent-dfh.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的订单-待发货-订单详情 - 申请退款.psd,我的订单-待发货-订单详情 - 退款成功.psd,我的订单-待发货-订单详情.psd,我的订单-已发货-订单详情 - 申请退款.psd,我的订单-已发货-订单详情 - 退款成功.psd,我的订单-已发货-订单详情.psd,我的订单-已完成-订单详情.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钱款去向.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>money-flow.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评价.psd,评价 -感谢您的评价.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>evaluate.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看物流.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logistics-info.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请退款.psd,申请退款 - 提示1.psd,申请退款 - 提示2.psd,申请退款 - 提示3.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退款结果-成功.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apply-refun-succeed.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退款结果 - 失败.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退款详情-仅退款等待处理.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apply-refun-false.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apply-refun.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退款详情-仅退款等待处理 - 2.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apply-refun-wait2.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退款详情-申请售后买家退货.psd,退款详情-申请售后买家退货 - 提交成功.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退款详情-申请售后买家退货-等待卖家收货.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apply-refun-sales.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退款详情-退款退货等待处理.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apply-refun-wait.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apply-refun-sales2.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apply-refun-wait3.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退款详情-要求微代平台介入.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apply-refun-weixin.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人资料1.psd,个人资料2.psd,个人资料3.psd,个人资料4.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wd-我的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理中心 -2.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>management-center.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的店铺-已添加商品.psd,我的店铺-已添加商品 -分享.psd,我的店铺-已添加商品 -分类展开.psd,我的店铺-无添加商品.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>素材库.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>素材库-图片放大.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>material-library.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>material-library-show.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待续</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>personal-data.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>素材库-图片放大 - 下载.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待续</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>material-library-show2.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cloud-brand-list.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cloud-brand-show.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的订单3.psd,我的订单3 - 下拉.psd,我的订单-待发货.psd,我的订单-待付款 - 继续付款.psd,我的订单-待付款.psd,我的订单-待评价.psd,我的订单-退货退款.psd,我的订单-退款处理中-无法确认状态.psd,我的订单-已发货.psd,我的订单-已完成.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>my-shop.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>云端品牌库2.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>云端品牌库-微代品牌-全部商品.psd，云端品牌库-微代品牌-全部商品 - 分类展开.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动大厅.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>activity-center.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何升级.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>how-levelup.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未做瀑布流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售管理02.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sales-management.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分享引导.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>share-guidance.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dl-代理商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待发货.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wait-deliver.html</t>
+    <t>all-indent.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款_售后.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reimburse.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>close.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已关闭.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -754,10 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -769,7 +825,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -793,7 +849,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -801,319 +857,375 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
         <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
         <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
         <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
         <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
         <v>26</v>
-      </c>
-      <c r="B18" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="81" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" t="s">
         <v>49</v>
-      </c>
-      <c r="B40" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B42" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="46.5" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B51" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B53" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C53" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" t="s">
         <v>61</v>
-      </c>
-      <c r="B54" t="s">
-        <v>63</v>
-      </c>
-      <c r="C54" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B55" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C55" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B57" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B58" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B60" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B61" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B62" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B63" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A66" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
+        <v>82</v>
+      </c>
+      <c r="B67" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>83</v>
+      </c>
+      <c r="B68" t="s">
         <v>85</v>
       </c>
-      <c r="B67" t="s">
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
         <v>86</v>
+      </c>
+      <c r="B69" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>88</v>
+      </c>
+      <c r="B70" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>91</v>
+      </c>
+      <c r="B71" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>95</v>
+      </c>
+      <c r="B72" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>99</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>97</v>
+      </c>
+      <c r="B74" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>常见问题.psd</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -417,6 +417,38 @@
   </si>
   <si>
     <t>end.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>system-set.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>system-set-show.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置-详情.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>news.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手宝典.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手宝典-详细.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>news-show.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -810,10 +842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:C80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1228,6 +1260,38 @@
         <v>100</v>
       </c>
     </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>101</v>
+      </c>
+      <c r="B76" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>104</v>
+      </c>
+      <c r="B77" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>106</v>
+      </c>
+      <c r="B79" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
+        <v>107</v>
+      </c>
+      <c r="B80" t="s">
+        <v>108</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t>常见问题.psd</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -449,6 +449,38 @@
   </si>
   <si>
     <t>news-show.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收入 - 2.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收入明细.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>income.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>income-detail.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收入明细-详情页面.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收入明细-详情页面个人明细和扩展团队.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>income-detail-info.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>income-detail-info2.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -842,10 +874,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C80"/>
+  <dimension ref="A1:C86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1292,6 +1324,38 @@
         <v>108</v>
       </c>
     </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
+        <v>109</v>
+      </c>
+      <c r="B82" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
+        <v>110</v>
+      </c>
+      <c r="B84" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
+        <v>113</v>
+      </c>
+      <c r="B85" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
+        <v>114</v>
+      </c>
+      <c r="B86" t="s">
+        <v>116</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <si>
     <t>常见问题.psd</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -481,6 +481,14 @@
   </si>
   <si>
     <t>income-detail-info2.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团队管理.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>team-management.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -874,10 +882,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C86"/>
+  <dimension ref="A1:C88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1356,6 +1364,14 @@
         <v>116</v>
       </c>
     </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
+        <v>117</v>
+      </c>
+      <c r="B88" t="s">
+        <v>118</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
   <si>
     <t>常见问题.psd</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,375 +120,391 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>我的订单-待发货-订单详情 - 申请退款.psd,我的订单-待发货-订单详情 - 退款成功.psd,我的订单-待发货-订单详情.psd,我的订单-已发货-订单详情 - 申请退款.psd,我的订单-已发货-订单详情 - 退款成功.psd,我的订单-已发货-订单详情.psd,我的订单-已完成-订单详情.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱款去向.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>money-flow.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评价.psd,评价 -感谢您的评价.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>evaluate.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看物流.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logistics-info.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请退款.psd,申请退款 - 提示1.psd,申请退款 - 提示2.psd,申请退款 - 提示3.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款结果-成功.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply-refun-succeed.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款结果 - 失败.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款详情-仅退款等待处理.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply-refun-false.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply-refun.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款详情-仅退款等待处理 - 2.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply-refun-wait2.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款详情-申请售后买家退货.psd,退款详情-申请售后买家退货 - 提交成功.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款详情-申请售后买家退货-等待卖家收货.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply-refun-sales.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款详情-退款退货等待处理.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply-refun-wait.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply-refun-sales2.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply-refun-wait3.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款详情-要求微代平台介入.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply-refun-weixin.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人资料1.psd,个人资料2.psd,个人资料3.psd,个人资料4.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wd-我的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理中心 -2.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>management-center.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的店铺-已添加商品.psd,我的店铺-已添加商品 -分享.psd,我的店铺-已添加商品 -分类展开.psd,我的店铺-无添加商品.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>素材库.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>素材库-图片放大.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>material-library.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>material-library-show.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待续</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>personal-data.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>素材库-图片放大 - 下载.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待续</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>material-library-show2.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cloud-brand-list.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cloud-brand-show.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的订单3.psd,我的订单3 - 下拉.psd,我的订单-待发货.psd,我的订单-待付款 - 继续付款.psd,我的订单-待付款.psd,我的订单-待评价.psd,我的订单-退货退款.psd,我的订单-退款处理中-无法确认状态.psd,我的订单-已发货.psd,我的订单-已完成.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my-shop.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云端品牌库2.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云端品牌库-微代品牌-全部商品.psd，云端品牌库-微代品牌-全部商品 - 分类展开.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动大厅.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity-center.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何升级.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>how-levelup.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未做瀑布流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售管理02.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sales-management.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享引导.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>share-guidance.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dl-代理商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待发货.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待付款.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wait-deliver.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wait-pay.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单详情-已完成.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务协议.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>about-us.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agreement.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部订单.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my-indent-dfh.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my-indent.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all-indent.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款_售后.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reimburse.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>close.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已关闭.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>system-set.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>system-set-show.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置-详情.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>news.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手宝典.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手宝典-详细.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>news-show.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收入 - 2.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收入明细.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>income.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>income-detail.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收入明细-详情页面.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收入明细-详情页面个人明细和扩展团队.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>income-detail-info.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>income-detail-info2.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团队管理.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>team-management.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团队说明.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>team-explain.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的团队.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my-team.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>shop-show-mj.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>我的订单-待发货-订单详情 - 申请退款.psd,我的订单-待发货-订单详情 - 退款成功.psd,我的订单-待发货-订单详情.psd,我的订单-已发货-订单详情 - 申请退款.psd,我的订单-已发货-订单详情 - 退款成功.psd,我的订单-已发货-订单详情.psd,我的订单-已完成-订单详情.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钱款去向.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>money-flow.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评价.psd,评价 -感谢您的评价.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>evaluate.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看物流.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logistics-info.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请退款.psd,申请退款 - 提示1.psd,申请退款 - 提示2.psd,申请退款 - 提示3.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退款结果-成功.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apply-refun-succeed.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退款结果 - 失败.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退款详情-仅退款等待处理.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apply-refun-false.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apply-refun.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退款详情-仅退款等待处理 - 2.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apply-refun-wait2.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退款详情-申请售后买家退货.psd,退款详情-申请售后买家退货 - 提交成功.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退款详情-申请售后买家退货-等待卖家收货.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apply-refun-sales.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退款详情-退款退货等待处理.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apply-refun-wait.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apply-refun-sales2.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apply-refun-wait3.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退款详情-要求微代平台介入.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apply-refun-weixin.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人资料1.psd,个人资料2.psd,个人资料3.psd,个人资料4.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wd-我的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理中心 -2.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>management-center.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的店铺-已添加商品.psd,我的店铺-已添加商品 -分享.psd,我的店铺-已添加商品 -分类展开.psd,我的店铺-无添加商品.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>素材库.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>素材库-图片放大.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>material-library.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>material-library-show.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待续</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>personal-data.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>素材库-图片放大 - 下载.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待续</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>material-library-show2.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cloud-brand-list.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cloud-brand-show.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的订单3.psd,我的订单3 - 下拉.psd,我的订单-待发货.psd,我的订单-待付款 - 继续付款.psd,我的订单-待付款.psd,我的订单-待评价.psd,我的订单-退货退款.psd,我的订单-退款处理中-无法确认状态.psd,我的订单-已发货.psd,我的订单-已完成.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>my-shop.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>云端品牌库2.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>云端品牌库-微代品牌-全部商品.psd，云端品牌库-微代品牌-全部商品 - 分类展开.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动大厅.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>activity-center.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何升级.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>how-levelup.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未做瀑布流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售管理02.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sales-management.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分享引导.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>share-guidance.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dl-代理商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待发货.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待付款.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wait-deliver.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wait-pay.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单详情-已完成.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>indent-info.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务协议.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>about-us.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>agreement.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全部订单.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>my-indent-dfh.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>my-indent.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>all-indent.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退款_售后.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reimburse.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>close.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已关闭.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>end.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>system-set.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>system-set-show.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置-详情.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>news.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新手宝典.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新手宝典-详细.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>news-show.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的收入 - 2.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收入明细.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>income.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>income-detail.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收入明细-详情页面.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收入明细-详情页面个人明细和扩展团队.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>income-detail-info.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>income-detail-info2.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>团队管理.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>team-management.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -882,10 +898,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C88"/>
+  <dimension ref="A1:C90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -929,7 +945,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -1006,370 +1022,386 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="81" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
         <v>28</v>
-      </c>
-      <c r="B23" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
         <v>30</v>
-      </c>
-      <c r="B25" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
         <v>32</v>
-      </c>
-      <c r="B27" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
         <v>35</v>
-      </c>
-      <c r="B31" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" t="s">
         <v>41</v>
-      </c>
-      <c r="B35" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" t="s">
         <v>50</v>
-      </c>
-      <c r="B42" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="46.5" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" t="s">
         <v>54</v>
-      </c>
-      <c r="B49" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B51" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C53" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B54" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" t="s">
         <v>60</v>
-      </c>
-      <c r="C54" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" t="s">
         <v>63</v>
-      </c>
-      <c r="B55" t="s">
-        <v>65</v>
-      </c>
-      <c r="C55" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B57" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B58" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
+        <v>71</v>
+      </c>
+      <c r="B60" t="s">
         <v>72</v>
-      </c>
-      <c r="B60" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
+        <v>73</v>
+      </c>
+      <c r="B61" t="s">
         <v>74</v>
-      </c>
-      <c r="B61" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
+        <v>76</v>
+      </c>
+      <c r="B62" t="s">
         <v>77</v>
-      </c>
-      <c r="B62" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
+        <v>78</v>
+      </c>
+      <c r="B63" t="s">
         <v>79</v>
-      </c>
-      <c r="B63" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A66" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B67" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B68" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B69" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
+        <v>86</v>
+      </c>
+      <c r="B70" t="s">
         <v>88</v>
-      </c>
-      <c r="B70" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B71" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B72" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B73" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B74" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B76" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B77" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B79" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B80" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B82" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B84" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B85" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B86" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
+        <v>114</v>
+      </c>
+      <c r="B88" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
+        <v>116</v>
+      </c>
+      <c r="B89" t="s">
         <v>117</v>
       </c>
-      <c r="B88" t="s">
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A90" t="s">
         <v>118</v>
+      </c>
+      <c r="B90" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
   <si>
     <t>常见问题.psd</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -284,227 +284,235 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>my-shop.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云端品牌库2.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云端品牌库-微代品牌-全部商品.psd，云端品牌库-微代品牌-全部商品 - 分类展开.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动大厅.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity-center.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何升级.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>how-levelup.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未做瀑布流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售管理02.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sales-management.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享引导.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>share-guidance.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dl-代理商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待发货.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待付款.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wait-deliver.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wait-pay.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单详情-已完成.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务协议.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>about-us.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agreement.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部订单.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my-indent-dfh.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my-indent.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all-indent.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款_售后.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reimburse.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>close.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已关闭.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>system-set.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>system-set-show.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置-详情.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>news.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手宝典.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手宝典-详细.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>news-show.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收入 - 2.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收入明细.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>income.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>income-detail.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收入明细-详情页面.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收入明细-详情页面个人明细和扩展团队.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>income-detail-info.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>income-detail-info2.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团队管理.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>team-management.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团队说明.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>team-explain.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的团队.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my-team.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop-show-mj.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>indent-info.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>我的订单3.psd,我的订单3 - 下拉.psd,我的订单-待发货.psd,我的订单-待付款 - 继续付款.psd,我的订单-待付款.psd,我的订单-待评价.psd,我的订单-退货退款.psd,我的订单-退款处理中-无法确认状态.psd,我的订单-已发货.psd,我的订单-已完成.psd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>my-shop.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>云端品牌库2.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>云端品牌库-微代品牌-全部商品.psd，云端品牌库-微代品牌-全部商品 - 分类展开.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动大厅.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>activity-center.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何升级.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>how-levelup.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未做瀑布流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售管理02.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sales-management.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分享引导.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>share-guidance.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dl-代理商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待发货.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待付款.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wait-deliver.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wait-pay.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单详情-已完成.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务协议.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>about-us.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>agreement.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全部订单.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>my-indent-dfh.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>my-indent.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>all-indent.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退款_售后.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reimburse.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>close.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已关闭.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>system-set.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>system-set-show.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置-详情.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>news.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新手宝典.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新手宝典-详细.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>news-show.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的收入 - 2.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收入明细.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>income.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>income-detail.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收入明细-详情页面.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收入明细-详情页面个人明细和扩展团队.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>income-detail-info.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>income-detail-info2.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>团队管理.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>team-management.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>团队说明.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>team-explain.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的团队.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>my-team.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>end.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shop-show-mj.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>indent-info.html</t>
+    <t>微店首页.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wd-index.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -900,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -945,7 +953,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -1022,15 +1030,15 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="B20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="81" x14ac:dyDescent="0.15">
@@ -1038,7 +1046,7 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
@@ -1163,7 +1171,7 @@
         <v>55</v>
       </c>
       <c r="B51" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
@@ -1174,7 +1182,7 @@
         <v>58</v>
       </c>
       <c r="C53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
@@ -1201,7 +1209,7 @@
     </row>
     <row r="57" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B57" t="s">
         <v>65</v>
@@ -1209,7 +1217,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B58" t="s">
         <v>66</v>
@@ -1217,191 +1225,199 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
+        <v>70</v>
+      </c>
+      <c r="B60" t="s">
         <v>71</v>
-      </c>
-      <c r="B60" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
+        <v>72</v>
+      </c>
+      <c r="B61" t="s">
         <v>73</v>
-      </c>
-      <c r="B61" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
+        <v>75</v>
+      </c>
+      <c r="B62" t="s">
         <v>76</v>
-      </c>
-      <c r="B62" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63" t="s">
         <v>78</v>
       </c>
-      <c r="B63" t="s">
-        <v>79</v>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>123</v>
+      </c>
+      <c r="B64" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A66" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B67" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B68" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B69" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B70" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B71" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
+        <v>92</v>
+      </c>
+      <c r="B72" t="s">
         <v>93</v>
-      </c>
-      <c r="B72" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B73" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B74" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
+        <v>97</v>
+      </c>
+      <c r="B76" t="s">
         <v>98</v>
-      </c>
-      <c r="B76" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B77" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B79" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
+        <v>103</v>
+      </c>
+      <c r="B80" t="s">
         <v>104</v>
-      </c>
-      <c r="B80" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B82" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B84" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B85" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B86" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
+        <v>113</v>
+      </c>
+      <c r="B88" t="s">
         <v>114</v>
-      </c>
-      <c r="B88" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
+        <v>115</v>
+      </c>
+      <c r="B89" t="s">
         <v>116</v>
-      </c>
-      <c r="B89" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
+        <v>117</v>
+      </c>
+      <c r="B90" t="s">
         <v>118</v>
-      </c>
-      <c r="B90" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
   <si>
     <t>常见问题.psd</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -513,6 +513,14 @@
   </si>
   <si>
     <t>wd-index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空白页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -906,10 +914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:C92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1420,6 +1428,14 @@
         <v>118</v>
       </c>
     </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A92" t="s">
+        <v>125</v>
+      </c>
+      <c r="B92" t="s">
+        <v>126</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <si>
     <t>常见问题.psd</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -472,55 +472,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>团队说明.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>team-explain.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的团队.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my-team.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop-show-mj.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>indent-info.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的订单3.psd,我的订单3 - 下拉.psd,我的订单-待发货.psd,我的订单-待付款 - 继续付款.psd,我的订单-待付款.psd,我的订单-待评价.psd,我的订单-退货退款.psd,我的订单-退款处理中-无法确认状态.psd,我的订单-已发货.psd,我的订单-已完成.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微店首页.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wd-index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空白页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团队管理 -收入明细.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>team-management.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>团队说明.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>team-explain.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的团队.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>my-team.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>end.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shop-show-mj.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>indent-info.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的订单3.psd,我的订单3 - 下拉.psd,我的订单-待发货.psd,我的订单-待付款 - 继续付款.psd,我的订单-待付款.psd,我的订单-待评价.psd,我的订单-退货退款.psd,我的订单-退款处理中-无法确认状态.psd,我的订单-已发货.psd,我的订单-已完成.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微店首页.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wd-index.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空白页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>null.html</t>
+    <t>team-management-info.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -914,10 +922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C92"/>
+  <dimension ref="A1:C94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1038,12 +1046,12 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B20" t="s">
         <v>90</v>
@@ -1265,10 +1273,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
+        <v>122</v>
+      </c>
+      <c r="B64" t="s">
         <v>123</v>
-      </c>
-      <c r="B64" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="31.5" x14ac:dyDescent="0.15">
@@ -1297,7 +1305,7 @@
         <v>84</v>
       </c>
       <c r="B69" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
@@ -1337,7 +1345,7 @@
         <v>94</v>
       </c>
       <c r="B74" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
@@ -1409,31 +1417,39 @@
         <v>113</v>
       </c>
       <c r="B88" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
+        <v>114</v>
+      </c>
+      <c r="B89" t="s">
         <v>115</v>
-      </c>
-      <c r="B89" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
+        <v>116</v>
+      </c>
+      <c r="B90" t="s">
         <v>117</v>
-      </c>
-      <c r="B90" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
+        <v>124</v>
+      </c>
+      <c r="B92" t="s">
         <v>125</v>
       </c>
-      <c r="B92" t="s">
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A94" t="s">
         <v>126</v>
+      </c>
+      <c r="B94" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
   <si>
     <t>常见问题.psd</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -529,6 +529,18 @@
   </si>
   <si>
     <t>team-management-info.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抱歉，您查看的商品不存在.psd,访问地址不存在错误页.,您的登录状态异常，正在重新登录....psd,系统出现错误，请稍后再试！.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wrong.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -536,7 +548,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -577,6 +589,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -598,7 +619,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -617,6 +638,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -922,10 +946,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C94"/>
+  <dimension ref="A1:C99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+      <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1452,6 +1476,19 @@
         <v>128</v>
       </c>
     </row>
+    <row r="98" spans="1:2" ht="35.25" x14ac:dyDescent="0.4">
+      <c r="A98" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A99" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B99" t="s">
+        <v>131</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
   <si>
     <t>常见问题.psd</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -541,6 +541,106 @@
   </si>
   <si>
     <t>wrong.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guide_page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manage_1.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manage_2.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manage_3.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理中心 -功能引导 - 第一步.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理中心 -功能引导 - 第2步.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理中心 -功能引导 - 第3步.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warehouse_1.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warehouse_3.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warehouse_2.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的仓库-第一步.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的仓库-第2步.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的仓库-第3步.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_1.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_2.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_3.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_4.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_5.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_6.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的店铺--第一步.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的店铺--第2步.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的店铺--第3步.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的店铺--第4步.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的店铺--第5步.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的店铺--第6步.psd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -619,7 +719,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -641,6 +741,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -946,10 +1049,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C99"/>
+  <dimension ref="A1:C117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B99" sqref="B99"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A117" sqref="A117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1489,6 +1592,107 @@
         <v>131</v>
       </c>
     </row>
+    <row r="103" spans="1:2" ht="35.25" x14ac:dyDescent="0.15">
+      <c r="A103" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A104" t="s">
+        <v>136</v>
+      </c>
+      <c r="B104" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A105" t="s">
+        <v>137</v>
+      </c>
+      <c r="B105" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A106" t="s">
+        <v>138</v>
+      </c>
+      <c r="B106" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A108" t="s">
+        <v>142</v>
+      </c>
+      <c r="B108" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A109" t="s">
+        <v>143</v>
+      </c>
+      <c r="B109" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A110" t="s">
+        <v>144</v>
+      </c>
+      <c r="B110" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A112" t="s">
+        <v>151</v>
+      </c>
+      <c r="B112" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A113" t="s">
+        <v>152</v>
+      </c>
+      <c r="B113" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A114" t="s">
+        <v>153</v>
+      </c>
+      <c r="B114" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A115" t="s">
+        <v>154</v>
+      </c>
+      <c r="B115" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A116" t="s">
+        <v>155</v>
+      </c>
+      <c r="B116" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A117" t="s">
+        <v>156</v>
+      </c>
+      <c r="B117" t="s">
+        <v>150</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
   <si>
     <t>常见问题.psd</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,75 +100,547 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>店铺首页-搜索.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop-index-mj.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop-index-mj-search.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品详情 - 2.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的订单-待发货-订单详情 - 申请退款.psd,我的订单-待发货-订单详情 - 退款成功.psd,我的订单-待发货-订单详情.psd,我的订单-已发货-订单详情 - 申请退款.psd,我的订单-已发货-订单详情 - 退款成功.psd,我的订单-已发货-订单详情.psd,我的订单-已完成-订单详情.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱款去向.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>money-flow.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评价.psd,评价 -感谢您的评价.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>evaluate.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看物流.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logistics-info.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请退款.psd,申请退款 - 提示1.psd,申请退款 - 提示2.psd,申请退款 - 提示3.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款结果-成功.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply-refun-succeed.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款结果 - 失败.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款详情-仅退款等待处理.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply-refun-false.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款详情-仅退款等待处理 - 2.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply-refun-wait2.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款详情-申请售后买家退货-等待卖家收货.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply-refun-sales2.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款详情-要求微代平台介入.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人资料1.psd,个人资料2.psd,个人资料3.psd,个人资料4.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wd-我的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理中心 -2.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>management-center.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的店铺-已添加商品.psd,我的店铺-已添加商品 -分享.psd,我的店铺-已添加商品 -分类展开.psd,我的店铺-无添加商品.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>素材库.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>素材库-图片放大.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>material-library.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>material-library-show.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待续</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>personal-data.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>素材库-图片放大 - 下载.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待续</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>material-library-show2.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cloud-brand-list.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cloud-brand-show.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my-shop.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云端品牌库2.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云端品牌库-微代品牌-全部商品.psd，云端品牌库-微代品牌-全部商品 - 分类展开.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动大厅.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity-center.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何升级.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>how-levelup.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未做瀑布流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售管理02.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sales-management.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享引导.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>share-guidance.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dl-代理商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待发货.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待付款.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wait-deliver.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wait-pay.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单详情-已完成.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务协议.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>about-us.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agreement.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部订单.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my-indent-dfh.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my-indent.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all-indent.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款_售后.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reimburse.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>close.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已关闭.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>system-set.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>system-set-show.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置-详情.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>news.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手宝典.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手宝典-详细.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>news-show.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收入 - 2.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收入明细.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>income.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>income-detail.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收入明细-详情页面.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收入明细-详情页面个人明细和扩展团队.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>income-detail-info.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>income-detail-info2.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团队管理.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团队说明.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>team-explain.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的团队.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my-team.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop-show-mj.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>indent-info.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的订单3.psd,我的订单3 - 下拉.psd,我的订单-待发货.psd,我的订单-待付款 - 继续付款.psd,我的订单-待付款.psd,我的订单-待评价.psd,我的订单-退货退款.psd,我的订单-退款处理中-无法确认状态.psd,我的订单-已发货.psd,我的订单-已完成.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微店首页.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wd-index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空白页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团队管理 -收入明细.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>team-management.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>team-management-info.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抱歉，您查看的商品不存在.psd,访问地址不存在错误页.,您的登录状态异常，正在重新登录....psd,系统出现错误，请稍后再试！.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wrong.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guide_page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manage_1.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manage_2.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manage_3.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理中心 -功能引导 - 第一步.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理中心 -功能引导 - 第2步.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理中心 -功能引导 - 第3步.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warehouse_1.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warehouse_3.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warehouse_2.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的仓库-第一步.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的仓库-第2步.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的仓库-第3步.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_1.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_2.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_3.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_4.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_5.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_6.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的店铺--第一步.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的店铺--第2步.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的店铺--第3步.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的店铺--第4步.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的店铺--第5步.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的店铺--第6步.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款详情-退款退货等待处理.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply-refun-wait3.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply-refun-weixin.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply-refun-sales.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>mj-买家</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>店铺首页-搜索.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shop-index-mj.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shop-index-mj-search.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品详情 - 2.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的订单-待发货-订单详情 - 申请退款.psd,我的订单-待发货-订单详情 - 退款成功.psd,我的订单-待发货-订单详情.psd,我的订单-已发货-订单详情 - 申请退款.psd,我的订单-已发货-订单详情 - 退款成功.psd,我的订单-已发货-订单详情.psd,我的订单-已完成-订单详情.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钱款去向.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>money-flow.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评价.psd,评价 -感谢您的评价.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>evaluate.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看物流.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logistics-info.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请退款.psd,申请退款 - 提示1.psd,申请退款 - 提示2.psd,申请退款 - 提示3.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退款结果-成功.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apply-refun-succeed.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退款结果 - 失败.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退款详情-仅退款等待处理.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apply-refun-false.html</t>
+    <t>mj-买家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员处理中.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dispose.hltml</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -176,11 +648,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>退款详情-仅退款等待处理 - 2.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apply-refun-wait2.html</t>
+    <t>apply-refun-wait.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买家修改退款退货申请.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -188,459 +660,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>退款详情-申请售后买家退货-等待卖家收货.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apply-refun-sales.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退款详情-退款退货等待处理.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apply-refun-wait.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apply-refun-sales2.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apply-refun-wait3.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退款详情-要求微代平台介入.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apply-refun-weixin.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人资料1.psd,个人资料2.psd,个人资料3.psd,个人资料4.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wd-我的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理中心 -2.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>management-center.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的店铺-已添加商品.psd,我的店铺-已添加商品 -分享.psd,我的店铺-已添加商品 -分类展开.psd,我的店铺-无添加商品.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>素材库.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>素材库-图片放大.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>material-library.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>material-library-show.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待续</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>personal-data.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>素材库-图片放大 - 下载.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待续</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>material-library-show2.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cloud-brand-list.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cloud-brand-show.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>my-shop.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>云端品牌库2.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>云端品牌库-微代品牌-全部商品.psd，云端品牌库-微代品牌-全部商品 - 分类展开.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动大厅.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>activity-center.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何升级.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>how-levelup.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未做瀑布流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售管理02.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sales-management.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分享引导.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>share-guidance.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dl-代理商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待发货.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待付款.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wait-deliver.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wait-pay.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单详情-已完成.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务协议.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>about-us.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>agreement.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全部订单.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>my-indent-dfh.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>my-indent.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>all-indent.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退款_售后.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reimburse.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>close.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已关闭.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>system-set.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>system-set-show.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置-详情.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>news.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新手宝典.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新手宝典-详细.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>news-show.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的收入 - 2.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收入明细.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>income.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>income-detail.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收入明细-详情页面.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收入明细-详情页面个人明细和扩展团队.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>income-detail-info.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>income-detail-info2.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>团队管理.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>团队说明.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>team-explain.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的团队.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>my-team.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>end.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shop-show-mj.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>indent-info.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的订单3.psd,我的订单3 - 下拉.psd,我的订单-待发货.psd,我的订单-待付款 - 继续付款.psd,我的订单-待付款.psd,我的订单-待评价.psd,我的订单-退货退款.psd,我的订单-退款处理中-无法确认状态.psd,我的订单-已发货.psd,我的订单-已完成.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微店首页.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wd-index.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空白页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>null.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>团队管理 -收入明细.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>team-management.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>team-management-info.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>common</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抱歉，您查看的商品不存在.psd,访问地址不存在错误页.,您的登录状态异常，正在重新登录....psd,系统出现错误，请稍后再试！.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wrong.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guide_page</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>manage_1.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>manage_2.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>manage_3.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理中心 -功能引导 - 第一步.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理中心 -功能引导 - 第2步.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理中心 -功能引导 - 第3步.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>warehouse_1.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>warehouse_3.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>warehouse_2.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的仓库-第一步.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的仓库-第2步.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的仓库-第3步.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shop_1.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shop_2.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shop_3.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shop_4.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shop_5.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shop_6.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的店铺--第一步.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的店铺--第2步.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的店铺--第3步.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的店铺--第4步.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的店铺--第5步.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的店铺--第6步.psd</t>
+    <t>change-th.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商家未收到货拒绝退款.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refuse-pay.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1049,10 +1077,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C117"/>
+  <dimension ref="A1:C127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A117" sqref="A117"/>
+    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="B138" sqref="B138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1096,7 +1124,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -1149,7 +1177,7 @@
     </row>
     <row r="15" spans="1:2" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
@@ -1157,540 +1185,569 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="81" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
         <v>27</v>
-      </c>
-      <c r="B23" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
         <v>29</v>
-      </c>
-      <c r="B25" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
         <v>31</v>
-      </c>
-      <c r="B27" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
         <v>34</v>
-      </c>
-      <c r="B31" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>149</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>50</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="46.5" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B47" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B49" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B51" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B53" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C53" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B54" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C54" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B57" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B62" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B64" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A66" s="6" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B67" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B68" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B69" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B70" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B71" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B72" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B73" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B74" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B76" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B77" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B79" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B80" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B82" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B84" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B85" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B86" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B88" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B89" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B90" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B92" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B94" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="35.25" x14ac:dyDescent="0.4">
       <c r="A98" s="7" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A99" s="3" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B99" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="35.25" x14ac:dyDescent="0.15">
       <c r="A103" s="8" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B104" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B105" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B106" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B108" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B109" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B110" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B112" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B113" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B114" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B115" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B116" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
+        <v>148</v>
+      </c>
+      <c r="B117" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="35.25" x14ac:dyDescent="0.15">
+      <c r="A124" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A125" t="s">
+        <v>155</v>
+      </c>
+      <c r="B125" t="s">
         <v>156</v>
       </c>
-      <c r="B117" t="s">
-        <v>150</v>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A126" t="s">
+        <v>159</v>
+      </c>
+      <c r="B126" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A127" t="s">
+        <v>162</v>
+      </c>
+      <c r="B127" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
   <si>
     <t>常见问题.psd</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -412,263 +412,279 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>收入明细-详情页面.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收入明细-详情页面个人明细和扩展团队.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>income-detail-info2.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团队管理.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团队说明.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>team-explain.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的团队.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my-team.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop-show-mj.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>indent-info.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的订单3.psd,我的订单3 - 下拉.psd,我的订单-待发货.psd,我的订单-待付款 - 继续付款.psd,我的订单-待付款.psd,我的订单-待评价.psd,我的订单-退货退款.psd,我的订单-退款处理中-无法确认状态.psd,我的订单-已发货.psd,我的订单-已完成.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微店首页.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wd-index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空白页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团队管理 -收入明细.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>team-management.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>team-management-info.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抱歉，您查看的商品不存在.psd,访问地址不存在错误页.,您的登录状态异常，正在重新登录....psd,系统出现错误，请稍后再试！.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wrong.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guide_page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manage_1.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manage_2.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manage_3.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理中心 -功能引导 - 第一步.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理中心 -功能引导 - 第2步.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理中心 -功能引导 - 第3步.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warehouse_1.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warehouse_3.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warehouse_2.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的仓库-第一步.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的仓库-第2步.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的仓库-第3步.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_1.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_2.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_3.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_4.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_5.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_6.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的店铺--第一步.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的店铺--第2步.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的店铺--第3步.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的店铺--第4步.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的店铺--第5步.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的店铺--第6步.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款详情-退款退货等待处理.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply-refun-wait3.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply-refun-weixin.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply-refun-sales.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mj-买家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mj-买家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员处理中.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dispose.hltml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply-refun.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply-refun-wait.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买家修改退款退货申请.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款详情-申请售后买家退货.psd,退款详情-申请售后买家退货 - 提交成功.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>change-th.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商家未收到货拒绝退款.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refuse-pay.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>income.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>待收金额明细.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>daishou.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>income-detail.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>收入明细-详情页面.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收入明细-详情页面个人明细和扩展团队.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>income-detail-info.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>income-detail-info2.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>团队管理.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>团队说明.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>team-explain.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的团队.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>my-team.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>end.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shop-show-mj.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>indent-info.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的订单3.psd,我的订单3 - 下拉.psd,我的订单-待发货.psd,我的订单-待付款 - 继续付款.psd,我的订单-待付款.psd,我的订单-待评价.psd,我的订单-退货退款.psd,我的订单-退款处理中-无法确认状态.psd,我的订单-已发货.psd,我的订单-已完成.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微店首页.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wd-index.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空白页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>null.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>团队管理 -收入明细.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>team-management.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>team-management-info.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>common</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抱歉，您查看的商品不存在.psd,访问地址不存在错误页.,您的登录状态异常，正在重新登录....psd,系统出现错误，请稍后再试！.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wrong.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guide_page</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>manage_1.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>manage_2.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>manage_3.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理中心 -功能引导 - 第一步.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理中心 -功能引导 - 第2步.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理中心 -功能引导 - 第3步.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>warehouse_1.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>warehouse_3.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>warehouse_2.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的仓库-第一步.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的仓库-第2步.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的仓库-第3步.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shop_1.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shop_2.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shop_3.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shop_4.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shop_5.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shop_6.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的店铺--第一步.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的店铺--第2步.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的店铺--第3步.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的店铺--第4步.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的店铺--第5步.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的店铺--第6步.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退款详情-退款退货等待处理.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apply-refun-wait3.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apply-refun-weixin.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apply-refun-sales.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mj-买家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mj-买家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员处理中.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dispose.hltml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apply-refun.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apply-refun-wait.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>买家修改退款退货申请.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退款详情-申请售后买家退货.psd,退款详情-申请售后买家退货 - 提交成功.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>change-th.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商家未收到货拒绝退款.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>refuse-pay.html</t>
+    <t>daishou-info.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待收明细-详细-已完成.psd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1077,10 +1093,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C127"/>
+  <dimension ref="A1:C131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="B138" sqref="B138"/>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="B134" sqref="B134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1177,7 +1193,7 @@
     </row>
     <row r="15" spans="1:2" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
@@ -1201,12 +1217,12 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B20" t="s">
         <v>82</v>
@@ -1249,7 +1265,7 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
@@ -1273,7 +1289,7 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
@@ -1286,10 +1302,10 @@
     </row>
     <row r="37" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B37" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
@@ -1302,10 +1318,10 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B40" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
@@ -1313,7 +1329,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="46.5" x14ac:dyDescent="0.15">
@@ -1428,10 +1444,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B64" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="31.5" x14ac:dyDescent="0.15">
@@ -1460,7 +1476,7 @@
         <v>76</v>
       </c>
       <c r="B69" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
@@ -1500,7 +1516,7 @@
         <v>86</v>
       </c>
       <c r="B74" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
@@ -1540,7 +1556,7 @@
         <v>97</v>
       </c>
       <c r="B82" t="s">
-        <v>99</v>
+        <v>161</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.15">
@@ -1548,206 +1564,222 @@
         <v>98</v>
       </c>
       <c r="B84" t="s">
-        <v>100</v>
+        <v>164</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B85" t="s">
-        <v>103</v>
+        <v>165</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B86" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B88" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B89" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B90" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B92" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B94" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="35.25" x14ac:dyDescent="0.4">
       <c r="A98" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A99" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B99" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="35.25" x14ac:dyDescent="0.15">
       <c r="A103" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B104" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B105" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B106" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B108" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B109" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B110" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B112" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B113" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B114" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B115" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B116" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B117" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="35.25" x14ac:dyDescent="0.15">
       <c r="A124" s="8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B125" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B126" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
+        <v>159</v>
+      </c>
+      <c r="B127" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A130" t="s">
         <v>162</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B130" t="s">
         <v>163</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A131" t="s">
+        <v>167</v>
+      </c>
+      <c r="B131" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
